--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,15 +480,15 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.61395" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.860516" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.129147" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="4.323881" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.837043" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.860516" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="5.521159" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="8.893207" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.365104" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.838967" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.78805" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.039376" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.16609" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.764343" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.78805" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.191426" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="8.781088" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
